--- a/Dokumenter/Risikoanalyse.xlsx
+++ b/Dokumenter/Risikoanalyse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27630"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeoslokommuneno-my.sharepoint.com/personal/mataa016_osloskolen_no/Documents/Videregående/VG2/Development/AArsoppgave/Dokumenter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeoslokommuneno-my.sharepoint.com/personal/mataa016_osloskolen_no/Documents/Videregående/VG2/Development/Terminnoppgave/aarsoppgave/Dokumenter/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="100" documentId="8_{4666E808-344E-4EC7-ABFF-A9CFEE84FC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A683C444-6FCA-47EE-8040-79C082961F60}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="1" xr2:uid="{B79DEFEE-B3E0-4A78-B1D4-C3041B318B3D}"/>
+    <workbookView minimized="1" xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{B79DEFEE-B3E0-4A78-B1D4-C3041B318B3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Risiko analyse" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,9 +383,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Forklarende tekst" xfId="2" builtinId="53"/>
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
+    <cellStyle name="Heading 4" xfId="1" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Overskrift 4" xfId="1" builtinId="19"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -745,13 +745,13 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="2.25" customHeight="1"/>
-    <row r="2" spans="1:9" ht="45" customHeight="1">
+    <row r="1" spans="1:9" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -764,8 +764,8 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="2.25" customHeight="1"/>
-    <row r="4" spans="1:9" s="1" customFormat="1">
+    <row r="3" spans="1:9" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -778,7 +778,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -786,7 +786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -794,7 +794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -805,7 +805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -822,12 +822,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -850,7 +850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -858,12 +858,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -871,7 +871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -879,7 +879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -887,7 +887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -895,7 +895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -903,7 +903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -911,7 +911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -933,10 +933,10 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
@@ -946,8 +946,8 @@
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="3.75" customHeight="1"/>
-    <row r="2" spans="1:6" ht="42.75" customHeight="1">
+    <row r="1" spans="1:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>37</v>
       </c>
@@ -957,8 +957,8 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="1:6" ht="1.5" customHeight="1"/>
-    <row r="4" spans="1:6" s="6" customFormat="1" ht="21">
+    <row r="3" spans="1:6" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
@@ -978,7 +978,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="18.75">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>44</v>
       </c>
@@ -998,7 +998,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" ht="18.75">
+    <row r="6" spans="1:6" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>47</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="18.75">
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" ht="18.75">
+    <row r="8" spans="1:6" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>51</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" ht="18.75">
+    <row r="9" spans="1:6" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>53</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" ht="18.75">
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>55</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="7" customFormat="1" ht="18.75">
+    <row r="11" spans="1:6" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>56</v>
       </c>
@@ -1118,128 +1118,128 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" ht="18.75">
+    <row r="12" spans="1:6" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" ht="18.75">
+    <row r="13" spans="1:6" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" ht="18.75">
+    <row r="14" spans="1:6" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" ht="18.75">
+    <row r="15" spans="1:6" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" ht="18.75">
+    <row r="16" spans="1:6" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="4:6" s="7" customFormat="1" ht="18.75">
+    <row r="17" spans="4:6" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="4:6" s="7" customFormat="1" ht="18.75">
+    <row r="18" spans="4:6" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="4:6" s="7" customFormat="1" ht="18.75">
+    <row r="19" spans="4:6" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="4:6" s="7" customFormat="1" ht="18.75">
+    <row r="20" spans="4:6" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="4:6" s="7" customFormat="1" ht="18.75">
+    <row r="21" spans="4:6" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="4:6" s="7" customFormat="1" ht="18.75">
+    <row r="22" spans="4:6" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="4:6" s="7" customFormat="1" ht="18.75">
+    <row r="23" spans="4:6" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="4:6" s="7" customFormat="1" ht="18.75">
+    <row r="24" spans="4:6" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="4:6" s="7" customFormat="1" ht="18.75">
+    <row r="25" spans="4:6" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="4:6">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D26" s="11"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="4:6">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D27" s="11"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="4:6">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="4:6">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="4:6">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="4:6">
+    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D31" s="11"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="4:6">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="6:6">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="6:6">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="6:6">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="6:6">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="6:6">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="6:6">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="6:6">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="6:6">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="6:6">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F41" s="12"/>
     </row>
   </sheetData>
@@ -1265,14 +1265,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="799c8709-ef66-4c6c-9db1-911ba3fb05c1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a6c765d7-93d9-4c2c-aec4-d1ca8eafcddb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1471,22 +1469,50 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="799c8709-ef66-4c6c-9db1-911ba3fb05c1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a6c765d7-93d9-4c2c-aec4-d1ca8eafcddb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D397892C-4107-4405-A41E-F7C43A9FB3B9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E69B3A1-1CC0-4B83-BCBA-02417EAE80CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A7F273C-7402-4B3E-9954-0673656DD6A3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A7F273C-7402-4B3E-9954-0673656DD6A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="799c8709-ef66-4c6c-9db1-911ba3fb05c1"/>
+    <ds:schemaRef ds:uri="a6c765d7-93d9-4c2c-aec4-d1ca8eafcddb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E69B3A1-1CC0-4B83-BCBA-02417EAE80CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D397892C-4107-4405-A41E-F7C43A9FB3B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="799c8709-ef66-4c6c-9db1-911ba3fb05c1"/>
+    <ds:schemaRef ds:uri="a6c765d7-93d9-4c2c-aec4-d1ca8eafcddb"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>